--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C373558-84AD-0E47-BFA1-6C1E00D842AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1A8D15-3116-D746-B341-931DC93F822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="database" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>set</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>sv2D</t>
+  </si>
+  <si>
+    <t>84/73</t>
+  </si>
+  <si>
+    <t>orthworm</t>
+  </si>
+  <si>
+    <t>sv2P</t>
+  </si>
+  <si>
+    <t>snow-hazard</t>
+  </si>
+  <si>
+    <t>81/71</t>
+  </si>
+  <si>
+    <t>paldean-tauros</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>Paldean Tauros</t>
   </si>
 </sst>
 </file>
@@ -518,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -542,8 +566,11 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -559,8 +586,11 @@
       <c r="E2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -576,8 +606,11 @@
       <c r="E3">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -593,8 +626,11 @@
       <c r="E4">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -610,8 +646,11 @@
       <c r="E5">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -627,10 +666,13 @@
       <c r="E6">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -639,66 +681,78 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>750</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>769</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -707,18 +761,57 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>929</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>960</v>
       </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>968</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
-      <sortCondition ref="E1:E11"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1A8D15-3116-D746-B341-931DC93F822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE115C5-F3B4-4644-BFC9-E2FE9E85A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>set</t>
   </si>
@@ -170,7 +170,40 @@
     <t>img</t>
   </si>
   <si>
-    <t>Paldean Tauros</t>
+    <t>Pikachu</t>
+  </si>
+  <si>
+    <t>Psyduck</t>
+  </si>
+  <si>
+    <t>Poliwhirl</t>
+  </si>
+  <si>
+    <t>Drowzee</t>
+  </si>
+  <si>
+    <t>Tangela</t>
+  </si>
+  <si>
+    <t>Magikarp</t>
+  </si>
+  <si>
+    <t>Mudsdale</t>
+  </si>
+  <si>
+    <t>Sandygast</t>
+  </si>
+  <si>
+    <t>Dolliv</t>
+  </si>
+  <si>
+    <t>Wiglett</t>
+  </si>
+  <si>
+    <t>Orthworm</t>
+  </si>
+  <si>
+    <t>Tauros di Paldea</t>
   </si>
 </sst>
 </file>
@@ -545,7 +578,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,7 +605,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>151</v>
@@ -592,7 +625,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>151</v>
@@ -612,7 +645,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>151</v>
@@ -632,7 +665,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -652,7 +685,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>151</v>
@@ -672,7 +705,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -692,7 +725,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -712,7 +745,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -732,7 +765,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -752,7 +785,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -772,7 +805,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -792,7 +825,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE115C5-F3B4-4644-BFC9-E2FE9E85A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02148FC0-9EE4-CE45-95FF-4387E271687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="database" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>set</t>
   </si>
@@ -204,6 +204,99 @@
   </si>
   <si>
     <t>Tauros di Paldea</t>
+  </si>
+  <si>
+    <t>temporal-forces</t>
+  </si>
+  <si>
+    <t>paldea-evolved</t>
+  </si>
+  <si>
+    <t>scarlet-&amp;-violet</t>
+  </si>
+  <si>
+    <t>MEW</t>
+  </si>
+  <si>
+    <t>SVI</t>
+  </si>
+  <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>TEF</t>
+  </si>
+  <si>
+    <t>175/162</t>
+  </si>
+  <si>
+    <t>210/198</t>
+  </si>
+  <si>
+    <t>203/193</t>
+  </si>
+  <si>
+    <t>218/193</t>
+  </si>
+  <si>
+    <t>214/193</t>
+  </si>
+  <si>
+    <t>200/198</t>
+  </si>
+  <si>
+    <t>206/198</t>
+  </si>
+  <si>
+    <t>224/193</t>
+  </si>
+  <si>
+    <t>illustratore</t>
+  </si>
+  <si>
+    <t>OKACHEKE</t>
+  </si>
+  <si>
+    <t>Hiroyuki Yamamoto</t>
+  </si>
+  <si>
+    <t>Whisker</t>
+  </si>
+  <si>
+    <t>Gemi</t>
+  </si>
+  <si>
+    <t>Oswaldo KATO</t>
+  </si>
+  <si>
+    <t>Tomokazo Komiya</t>
+  </si>
+  <si>
+    <t>Anesaki Dynamic</t>
+  </si>
+  <si>
+    <t>Shinji Kanda</t>
+  </si>
+  <si>
+    <t>MINAMINAMI Take</t>
+  </si>
+  <si>
+    <t>Teeziro</t>
+  </si>
+  <si>
+    <t>You Iribi</t>
+  </si>
+  <si>
+    <t>seten</t>
+  </si>
+  <si>
+    <t>siglaseten</t>
+  </si>
+  <si>
+    <t>carden</t>
+  </si>
+  <si>
+    <t>anno</t>
   </si>
 </sst>
 </file>
@@ -575,15 +668,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -591,79 +697,139 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2">
+        <v>2023</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3">
         <v>151</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3">
+        <v>2023</v>
+      </c>
+      <c r="K3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4">
+        <v>2023</v>
+      </c>
+      <c r="K4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -671,39 +837,69 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5">
+        <v>2023</v>
+      </c>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6">
         <v>151</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
         <v>114</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6">
+        <v>2023</v>
+      </c>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -711,19 +907,34 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="E7">
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7">
         <v>128</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7">
+        <v>2023</v>
+      </c>
+      <c r="K7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -731,19 +942,34 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8">
         <v>129</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8">
+        <v>2023</v>
+      </c>
+      <c r="K8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -751,19 +977,34 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9">
         <v>750</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9">
+        <v>2024</v>
+      </c>
+      <c r="K9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -771,19 +1012,34 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10">
         <v>769</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10">
+        <v>2023</v>
+      </c>
+      <c r="K10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -791,19 +1047,34 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11">
         <v>929</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11">
+        <v>2023</v>
+      </c>
+      <c r="K11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -811,19 +1082,34 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12">
         <v>960</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12">
+        <v>2023</v>
+      </c>
+      <c r="K12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -831,20 +1117,39 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="E13">
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13">
         <v>968</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13">
+        <v>2023</v>
+      </c>
+      <c r="K13" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}"/>
+  <autoFilter ref="A1:K1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
+      <sortCondition ref="I1:I13"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02148FC0-9EE4-CE45-95FF-4387E271687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4430C120-C10F-6542-98C8-D01C2FF00365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>set</t>
   </si>
@@ -297,6 +297,63 @@
   </si>
   <si>
     <t>anno</t>
+  </si>
+  <si>
+    <t>Fungofurioso</t>
+  </si>
+  <si>
+    <t>ancient-roar</t>
+  </si>
+  <si>
+    <t>sv4K</t>
+  </si>
+  <si>
+    <t>77/66</t>
+  </si>
+  <si>
+    <t>fungofurioso</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>207/182</t>
+  </si>
+  <si>
+    <t>paradox-rift</t>
+  </si>
+  <si>
+    <t>Drampa</t>
+  </si>
+  <si>
+    <t>cyber-judge</t>
+  </si>
+  <si>
+    <t>sv5M</t>
+  </si>
+  <si>
+    <t>83/71</t>
+  </si>
+  <si>
+    <t>Mékayu</t>
+  </si>
+  <si>
+    <t>drampa</t>
+  </si>
+  <si>
+    <t>Litten</t>
+  </si>
+  <si>
+    <t>Makura Tami</t>
+  </si>
+  <si>
+    <t>litten</t>
+  </si>
+  <si>
+    <t>167/162</t>
+  </si>
+  <si>
+    <t>184/162</t>
   </si>
 </sst>
 </file>
@@ -668,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,183 +1028,288 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I9">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="J9">
         <v>2024</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="J10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I11">
-        <v>929</v>
+        <v>769</v>
       </c>
       <c r="J11">
         <v>2023</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I12">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="J12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I13">
-        <v>968</v>
+        <v>929</v>
       </c>
       <c r="J13">
         <v>2023</v>
       </c>
       <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14">
+        <v>960</v>
+      </c>
+      <c r="J14">
+        <v>2023</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>968</v>
+      </c>
+      <c r="J15">
+        <v>2023</v>
+      </c>
+      <c r="K15" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>986</v>
+      </c>
+      <c r="J16">
+        <v>2023</v>
+      </c>
+      <c r="K16" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
-      <sortCondition ref="I1:I13"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+      <sortCondition ref="I1:I16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4430C120-C10F-6542-98C8-D01C2FF00365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D4F5A8-D9DE-FE40-88BF-F354BF8B6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="140">
   <si>
     <t>set</t>
   </si>
@@ -354,6 +354,111 @@
   </si>
   <si>
     <t>184/162</t>
+  </si>
+  <si>
+    <t>Bulbasaur</t>
+  </si>
+  <si>
+    <t>166/165</t>
+  </si>
+  <si>
+    <t>Yoriyuki Ikegami</t>
+  </si>
+  <si>
+    <t>bulbasaur</t>
+  </si>
+  <si>
+    <t>Ivysaur</t>
+  </si>
+  <si>
+    <t>167/165</t>
+  </si>
+  <si>
+    <t>ivysaur</t>
+  </si>
+  <si>
+    <t>Charmeleon</t>
+  </si>
+  <si>
+    <t>169/165</t>
+  </si>
+  <si>
+    <t>charmeleon</t>
+  </si>
+  <si>
+    <t>Mewtwo</t>
+  </si>
+  <si>
+    <t>183/165</t>
+  </si>
+  <si>
+    <t>miki kudo</t>
+  </si>
+  <si>
+    <t>Bun Toujo</t>
+  </si>
+  <si>
+    <t>mewtwo</t>
+  </si>
+  <si>
+    <t>Mr. Mime</t>
+  </si>
+  <si>
+    <t>179/165</t>
+  </si>
+  <si>
+    <t>mr-mime</t>
+  </si>
+  <si>
+    <t>Ninetales</t>
+  </si>
+  <si>
+    <t>Gloom</t>
+  </si>
+  <si>
+    <t>sv3</t>
+  </si>
+  <si>
+    <t>SIE NANAHARA</t>
+  </si>
+  <si>
+    <t>Masako Tomii</t>
+  </si>
+  <si>
+    <t>ruler-of-the-black-flame</t>
+  </si>
+  <si>
+    <t>obsidian-flame</t>
+  </si>
+  <si>
+    <t>OBF</t>
+  </si>
+  <si>
+    <t>199/197</t>
+  </si>
+  <si>
+    <t>198/197</t>
+  </si>
+  <si>
+    <t>109/108</t>
+  </si>
+  <si>
+    <t>110/108</t>
+  </si>
+  <si>
+    <t>ninetales</t>
+  </si>
+  <si>
+    <t>gloom</t>
+  </si>
+  <si>
+    <t>scarlet-&amp;-violet-promos</t>
+  </si>
+  <si>
+    <t>SVP EN</t>
+  </si>
+  <si>
+    <t>052</t>
   </si>
 </sst>
 </file>
@@ -389,8 +494,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -725,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,7 +889,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>151</v>
@@ -798,27 +904,27 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>2023</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>151</v>
@@ -833,27 +939,27 @@
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>2023</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>151</v>
@@ -868,448 +974,693 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I4">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>2023</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>151</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>2023</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>151</v>
-      </c>
-      <c r="C6">
-        <v>151</v>
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="I6">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2023</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="I7">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>2023</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>151</v>
+      </c>
+      <c r="C8">
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I8">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>2023</v>
       </c>
       <c r="K8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>151</v>
+      </c>
+      <c r="C9">
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9">
-        <v>725</v>
-      </c>
       <c r="J9">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I10">
-        <v>750</v>
+        <v>96</v>
       </c>
       <c r="J10">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>151</v>
+      </c>
+      <c r="C11">
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I11">
-        <v>769</v>
+        <v>114</v>
       </c>
       <c r="J11">
         <v>2023</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I12">
-        <v>780</v>
+        <v>122</v>
       </c>
       <c r="J12">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>929</v>
+        <v>128</v>
       </c>
       <c r="J13">
         <v>2023</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I14">
-        <v>960</v>
+        <v>129</v>
       </c>
       <c r="J14">
         <v>2023</v>
       </c>
       <c r="K14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
+        <v>116</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="I15">
-        <v>968</v>
+        <v>150</v>
       </c>
       <c r="J15">
         <v>2023</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16">
+        <v>725</v>
+      </c>
+      <c r="J16">
+        <v>2024</v>
+      </c>
+      <c r="K16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17">
+        <v>750</v>
+      </c>
+      <c r="J17">
+        <v>2024</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>769</v>
+      </c>
+      <c r="J18">
+        <v>2023</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19">
+        <v>780</v>
+      </c>
+      <c r="J19">
+        <v>2024</v>
+      </c>
+      <c r="K19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20">
+        <v>929</v>
+      </c>
+      <c r="J20">
+        <v>2023</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21">
+        <v>960</v>
+      </c>
+      <c r="J21">
+        <v>2023</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22">
+        <v>968</v>
+      </c>
+      <c r="J22">
+        <v>2023</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>86</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D23" t="s">
         <v>88</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F23" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G23" t="s">
         <v>92</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H23" t="s">
         <v>76</v>
       </c>
-      <c r="I16">
+      <c r="I23">
         <v>986</v>
       </c>
-      <c r="J16">
-        <v>2023</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J23">
+        <v>2023</v>
+      </c>
+      <c r="K23" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
-      <sortCondition ref="I1:I16"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
+      <sortCondition ref="I1:I23"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D4F5A8-D9DE-FE40-88BF-F354BF8B6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DE8027-C9F6-5944-9A08-188048969A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="171">
   <si>
     <t>set</t>
   </si>
@@ -459,6 +459,99 @@
   </si>
   <si>
     <t>052</t>
+  </si>
+  <si>
+    <t>72/71</t>
+  </si>
+  <si>
+    <t>grotle</t>
+  </si>
+  <si>
+    <t>Grotle</t>
+  </si>
+  <si>
+    <t>164/162</t>
+  </si>
+  <si>
+    <t>Shibuzoh.</t>
+  </si>
+  <si>
+    <t>82/71</t>
+  </si>
+  <si>
+    <t>182/162</t>
+  </si>
+  <si>
+    <t>183/162</t>
+  </si>
+  <si>
+    <t>Minccino</t>
+  </si>
+  <si>
+    <t>Cinccino</t>
+  </si>
+  <si>
+    <t>minccino</t>
+  </si>
+  <si>
+    <t>cinccino</t>
+  </si>
+  <si>
+    <t>Pidgey</t>
+  </si>
+  <si>
+    <t>118/108</t>
+  </si>
+  <si>
+    <t>Jerky</t>
+  </si>
+  <si>
+    <t>207/197</t>
+  </si>
+  <si>
+    <t>pidgey</t>
+  </si>
+  <si>
+    <t>103/101</t>
+  </si>
+  <si>
+    <t>sv6</t>
+  </si>
+  <si>
+    <t>mask-of-change</t>
+  </si>
+  <si>
+    <t>Dipplin</t>
+  </si>
+  <si>
+    <t>TWM</t>
+  </si>
+  <si>
+    <t>170/167</t>
+  </si>
+  <si>
+    <t>Akira Komayama</t>
+  </si>
+  <si>
+    <t>dipplin</t>
+  </si>
+  <si>
+    <t>twilight-masquerade</t>
+  </si>
+  <si>
+    <t>71/66</t>
+  </si>
+  <si>
+    <t>GIDORA</t>
+  </si>
+  <si>
+    <t>Codaurlante</t>
+  </si>
+  <si>
+    <t>codaurlante</t>
+  </si>
+  <si>
+    <t>065</t>
   </si>
 </sst>
 </file>
@@ -831,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,77 +1087,77 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>151</v>
-      </c>
-      <c r="C5">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>2023</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>129</v>
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>2023</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>128</v>
@@ -1079,62 +1172,62 @@
         <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2023</v>
       </c>
       <c r="K7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8">
         <v>44</v>
       </c>
-      <c r="B8">
-        <v>151</v>
-      </c>
-      <c r="C8">
-        <v>151</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8">
-        <v>54</v>
-      </c>
       <c r="J8">
         <v>2023</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>151</v>
@@ -1149,97 +1242,97 @@
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>2023</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>151</v>
+      </c>
+      <c r="C10">
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J10">
         <v>2023</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11">
-        <v>151</v>
-      </c>
-      <c r="C11">
-        <v>151</v>
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J11">
         <v>2023</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>151</v>
@@ -1254,62 +1347,62 @@
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I12">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J12">
         <v>2023</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I13">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J13">
         <v>2023</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1324,97 +1417,97 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14">
         <v>2023</v>
       </c>
       <c r="K14" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15">
-        <v>151</v>
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>139</v>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="I15">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="J15">
         <v>2023</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="I16">
-        <v>725</v>
+        <v>150</v>
       </c>
       <c r="J16">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1429,71 +1522,71 @@
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I17">
-        <v>750</v>
+        <v>388</v>
       </c>
       <c r="J17">
         <v>2024</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I18">
-        <v>769</v>
+        <v>572</v>
       </c>
       <c r="J18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -1502,165 +1595,375 @@
         <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="I19">
-        <v>780</v>
+        <v>573</v>
       </c>
       <c r="J19">
         <v>2024</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I20">
-        <v>929</v>
+        <v>725</v>
       </c>
       <c r="J20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I21">
-        <v>960</v>
+        <v>750</v>
       </c>
       <c r="J21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K21" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I22">
-        <v>968</v>
+        <v>769</v>
       </c>
       <c r="J22">
         <v>2023</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23">
+        <v>780</v>
+      </c>
+      <c r="J23">
+        <v>2024</v>
+      </c>
+      <c r="K23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24">
+        <v>929</v>
+      </c>
+      <c r="J24">
+        <v>2023</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25">
+        <v>960</v>
+      </c>
+      <c r="J25">
+        <v>2023</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>968</v>
+      </c>
+      <c r="J26">
+        <v>2023</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27">
+        <v>985</v>
+      </c>
+      <c r="J27">
+        <v>2023</v>
+      </c>
+      <c r="K27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>86</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>87</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>88</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>91</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F28" t="s">
         <v>89</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G28" t="s">
         <v>92</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H28" t="s">
         <v>76</v>
       </c>
-      <c r="I23">
+      <c r="I28">
         <v>986</v>
       </c>
-      <c r="J23">
-        <v>2023</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J28">
+        <v>2023</v>
+      </c>
+      <c r="K28" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29">
+        <v>1011</v>
+      </c>
+      <c r="J29">
+        <v>2024</v>
+      </c>
+      <c r="K29" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
-      <sortCondition ref="I1:I23"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K29">
+      <sortCondition ref="I1:I29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B72A68B-B350-D541-8680-9F6001DFA245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1B2CB-7BDF-504F-92B3-3197B7A884DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -7315,294 +7315,294 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2">
-        <v>151</v>
-      </c>
-      <c r="C2">
-        <v>151</v>
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="I2">
-        <f>VLOOKUP(A2,Foglio1!C:D,2,FALSE)</f>
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="J2">
         <v>2023</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3">
-        <v>151</v>
-      </c>
-      <c r="C3">
-        <v>151</v>
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(A3,Foglio1!C:D,2,FALSE)</f>
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="J3">
         <v>2023</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4">
-        <v>151</v>
-      </c>
-      <c r="C4">
-        <v>151</v>
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(A4,Foglio1!C:D,2,FALSE)</f>
-        <v>5</v>
+        <v>929</v>
       </c>
       <c r="J4">
         <v>2023</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>2271</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(A5,Foglio1!C:D,2,FALSE)</f>
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="J5">
         <v>2023</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>151</v>
-      </c>
-      <c r="C6">
-        <v>151</v>
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(A6,Foglio1!C:D,2,FALSE)</f>
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="J6">
         <v>2023</v>
       </c>
       <c r="K6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2271</v>
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(A7,Foglio1!C:D,2,FALSE)</f>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>2023</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2271</v>
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>151</v>
+      </c>
+      <c r="C8">
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(A8,Foglio1!C:D,2,FALSE)</f>
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>2023</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" t="s">
-        <v>176</v>
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>151</v>
+      </c>
+      <c r="C9">
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="I9">
-        <v>51</v>
+        <f>VLOOKUP(A9,Foglio1!C:D,2,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K9" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>151</v>
@@ -7617,28 +7617,28 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(A10,Foglio1!C:D,2,FALSE)</f>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>2023</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>151</v>
@@ -7653,423 +7653,422 @@
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(A11,Foglio1!C:D,2,FALSE)</f>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J11">
         <v>2023</v>
       </c>
       <c r="K11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>2259</v>
-      </c>
-      <c r="G12">
-        <v>159</v>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(A12,Foglio1!C:D,2,FALSE)</f>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J12">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K12" t="s">
-        <v>2260</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <f>VLOOKUP(A13,Foglio1!C:D,2,FALSE)</f>
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="J13">
         <v>2023</v>
       </c>
       <c r="K13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>381</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2256</v>
-      </c>
-      <c r="C14" t="s">
-        <v>176</v>
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>151</v>
+      </c>
+      <c r="C14">
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>2261</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>2263</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>2262</v>
+        <v>71</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(A14,Foglio1!C:D,2,FALSE)</f>
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="J14">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K14" t="s">
-        <v>2264</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>151</v>
       </c>
-      <c r="C15">
-        <v>151</v>
+      <c r="C15" t="s">
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
+        <v>116</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(A15,Foglio1!C:D,2,FALSE)</f>
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="J15">
         <v>2023</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16">
-        <v>151</v>
-      </c>
-      <c r="C16">
-        <v>151</v>
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(A16,Foglio1!C:D,2,FALSE)</f>
-        <v>122</v>
+        <v>769</v>
       </c>
       <c r="J16">
         <v>2023</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I17">
-        <v>128</v>
+        <f>VLOOKUP(A17,Foglio1!C:D,2,FALSE)</f>
+        <v>968</v>
       </c>
       <c r="J17">
         <v>2023</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>2271</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(A18,Foglio1!C:D,2,FALSE)</f>
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>2023</v>
       </c>
       <c r="K18" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19">
-        <v>151</v>
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>2271</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(A19,Foglio1!C:D,2,FALSE)</f>
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>2023</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>2271</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>2265</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>2266</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(A20,Foglio1!C:D,2,FALSE)</f>
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="J20">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K20" t="s">
-        <v>2267</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>2256</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>2257</v>
-      </c>
-      <c r="G21" t="s">
-        <v>180</v>
+        <v>164</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="H21" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="I21">
-        <f>VLOOKUP(A21,Foglio1!C:D,2,FALSE)</f>
-        <v>329</v>
+        <v>985</v>
       </c>
       <c r="J21">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K21" t="s">
-        <v>2258</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22">
-        <f>VLOOKUP(A22,Foglio1!C:D,2,FALSE)</f>
-        <v>388</v>
+        <v>986</v>
       </c>
       <c r="J22">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K22" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -8084,28 +8083,28 @@
         <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(A23,Foglio1!C:D,2,FALSE)</f>
-        <v>572</v>
+        <v>388</v>
       </c>
       <c r="J23">
         <v>2024</v>
       </c>
       <c r="K23" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -8120,423 +8119,424 @@
         <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H24" t="s">
         <v>142</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(A24,Foglio1!C:D,2,FALSE)</f>
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J24">
         <v>2024</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1520</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>2257</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>2270</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>2269</v>
+        <v>142</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(A25,Foglio1!C:D,2,FALSE)</f>
-        <v>666</v>
+        <v>573</v>
       </c>
       <c r="J25">
         <v>2024</v>
       </c>
       <c r="K25" t="s">
-        <v>2268</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
         <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="I26">
         <f>VLOOKUP(A26,Foglio1!C:D,2,FALSE)</f>
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="J26">
         <v>2024</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I27">
         <f>VLOOKUP(A27,Foglio1!C:D,2,FALSE)</f>
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="J27">
         <v>2024</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I28">
         <f>VLOOKUP(A28,Foglio1!C:D,2,FALSE)</f>
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="J28">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="I29">
         <f>VLOOKUP(A29,Foglio1!C:D,2,FALSE)</f>
-        <v>780</v>
+        <v>1011</v>
       </c>
       <c r="J29">
         <v>2024</v>
       </c>
       <c r="K29" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>2256</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>2261</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>2263</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
+        <v>2262</v>
       </c>
       <c r="I30">
         <f>VLOOKUP(A30,Foglio1!C:D,2,FALSE)</f>
-        <v>929</v>
+        <v>102</v>
       </c>
       <c r="J30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K30" t="s">
-        <v>8</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>2256</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>2257</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="I31">
         <f>VLOOKUP(A31,Foglio1!C:D,2,FALSE)</f>
-        <v>960</v>
+        <v>329</v>
       </c>
       <c r="J31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K31" t="s">
-        <v>7</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="I32">
-        <f>VLOOKUP(A32,Foglio1!C:D,2,FALSE)</f>
-        <v>968</v>
+        <v>51</v>
       </c>
       <c r="J32">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
         <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
         <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>168</v>
+        <v>2259</v>
+      </c>
+      <c r="G33">
+        <v>159</v>
       </c>
       <c r="H33" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="I33">
-        <v>985</v>
+        <f>VLOOKUP(A33,Foglio1!C:D,2,FALSE)</f>
+        <v>82</v>
       </c>
       <c r="J33">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K33" t="s">
-        <v>167</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>750</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>2265</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>2266</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I34">
-        <v>986</v>
+        <f>VLOOKUP(A34,Foglio1!C:D,2,FALSE)</f>
+        <v>287</v>
       </c>
       <c r="J34">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K34" t="s">
-        <v>90</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>1520</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>2257</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>2270</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>2269</v>
       </c>
       <c r="I35">
         <f>VLOOKUP(A35,Foglio1!C:D,2,FALSE)</f>
-        <v>1011</v>
+        <v>666</v>
       </c>
       <c r="J35">
         <v>2024</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>2268</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K35">
-      <sortCondition ref="I1:I35"/>
+      <sortCondition ref="D1:D35"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1B2CB-7BDF-504F-92B3-3197B7A884DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8FB03E-6D04-5948-9C95-A6FF772B58A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="2273">
   <si>
     <t>set</t>
   </si>
@@ -6856,6 +6856,9 @@
   </si>
   <si>
     <t>obsidian-flames</t>
+  </si>
+  <si>
+    <t>linkimgjp</t>
   </si>
 </sst>
 </file>
@@ -7257,10 +7260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7276,9 +7279,10 @@
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -7312,8 +7316,14 @@
       <c r="K1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -7347,8 +7357,16 @@
       <c r="K2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D2),"/", LEFT(F2, FIND("/", F2 &amp; "/") - 1))</f>
+        <v>https://limitlesstcg.com/cards/jp/SV1A/84</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E2),"/", LEFT(G2, FIND("/", G2 &amp; "/") - 1))</f>
+        <v>https://limitlesstcg.com/cards/en/PAL/218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -7383,8 +7401,16 @@
       <c r="K3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:M35" si="0">_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D3),"/", LEFT(F3, FIND("/", F3 &amp; "/") - 1))</f>
+        <v>https://limitlesstcg.com/cards/jp/SV1A/80</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M35" si="1">_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E3),"/", LEFT(G3, FIND("/", G3 &amp; "/") - 1))</f>
+        <v>https://limitlesstcg.com/cards/en/PAL/203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -7419,8 +7445,16 @@
       <c r="K4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV1S/79</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVI/200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -7455,8 +7489,16 @@
       <c r="K5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV1S/81</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVI/206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -7491,8 +7533,16 @@
       <c r="K6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV1V/86</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVI/210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -7527,8 +7577,16 @@
       <c r="K7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/166</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -7563,8 +7621,16 @@
       <c r="K8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/167</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -7599,8 +7665,16 @@
       <c r="K9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/169</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -7635,8 +7709,16 @@
       <c r="K10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/173</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -7671,8 +7753,16 @@
       <c r="K11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/175</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -7707,8 +7797,16 @@
       <c r="K12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/176</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -7743,8 +7841,16 @@
       <c r="K13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/178</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -7779,8 +7885,16 @@
       <c r="K14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/179</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -7815,8 +7929,16 @@
       <c r="K15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/183</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVP/052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7851,8 +7973,16 @@
       <c r="K16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2D/75</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAL/214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -7887,8 +8017,16 @@
       <c r="K17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV2P/81</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAL/224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -7923,8 +8061,16 @@
       <c r="K18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV3/118</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/OBF/207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -7959,8 +8105,16 @@
       <c r="K19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV3/110</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/OBF/199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -7995,8 +8149,16 @@
       <c r="K20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV3/109</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/OBF/198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -8030,8 +8192,16 @@
       <c r="K21" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV4K/71</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVP/065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -8065,8 +8235,16 @@
       <c r="K22" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV4K/77</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAR/207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -8101,8 +8279,16 @@
       <c r="K23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/72</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -8137,8 +8323,16 @@
       <c r="K24" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/82</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -8173,8 +8367,16 @@
       <c r="K25" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/83</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -8209,8 +8411,16 @@
       <c r="K26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/78</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -8245,8 +8455,16 @@
       <c r="K27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV5M/75</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -8281,8 +8499,16 @@
       <c r="K28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV5M/83</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -8317,8 +8543,16 @@
       <c r="K29" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV6/103</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TWM/170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>381</v>
       </c>
@@ -8353,8 +8587,16 @@
       <c r="K30" t="s">
         <v>2264</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV7A/65</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -8389,8 +8631,16 @@
       <c r="K31" t="s">
         <v>2258</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV7A/71</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -8424,8 +8674,16 @@
       <c r="K32" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV8/116</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>342</v>
       </c>
@@ -8460,8 +8718,16 @@
       <c r="K33" t="s">
         <v>2260</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV8/112</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVP/159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>750</v>
       </c>
@@ -8496,8 +8762,16 @@
       <c r="K34" t="s">
         <v>2267</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV8/117</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1520</v>
       </c>
@@ -8531,6 +8805,14 @@
       </c>
       <c r="K35" t="s">
         <v>2268</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV8/71</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/193</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8FB03E-6D04-5948-9C95-A6FF772B58A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58954941-561C-7E45-9727-0B50CE4EF119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="2273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="2280">
   <si>
     <t>set</t>
   </si>
@@ -6859,6 +6859,27 @@
   </si>
   <si>
     <t>linkimgjp</t>
+  </si>
+  <si>
+    <t>115/106</t>
+  </si>
+  <si>
+    <t>Mizue</t>
+  </si>
+  <si>
+    <t>Saboteri</t>
+  </si>
+  <si>
+    <t>226/193</t>
+  </si>
+  <si>
+    <t>205/191</t>
+  </si>
+  <si>
+    <t>maushold</t>
+  </si>
+  <si>
+    <t>phanpy</t>
   </si>
 </sst>
 </file>
@@ -7260,10 +7281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7325,358 +7346,358 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>151</v>
+      </c>
+      <c r="C2">
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I2">
-        <v>128</v>
+        <f>VLOOKUP(A2,Foglio1!C:D,2,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>2023</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="L2" t="str">
         <f>_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D2),"/", LEFT(F2, FIND("/", F2 &amp; "/") - 1))</f>
-        <v>https://limitlesstcg.com/cards/jp/SV1A/84</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/166</v>
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E2),"/", LEFT(G2, FIND("/", G2 &amp; "/") - 1))</f>
-        <v>https://limitlesstcg.com/cards/en/PAL/218</v>
+        <v>https://limitlesstcg.com/cards/en/MEW/166</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>151</v>
+      </c>
+      <c r="C3">
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I3">
         <f>VLOOKUP(A3,Foglio1!C:D,2,FALSE)</f>
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>2023</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:M35" si="0">_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D3),"/", LEFT(F3, FIND("/", F3 &amp; "/") - 1))</f>
-        <v>https://limitlesstcg.com/cards/jp/SV1A/80</v>
+        <f t="shared" ref="L3:M37" si="0">_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D3),"/", LEFT(F3, FIND("/", F3 &amp; "/") - 1))</f>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/167</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M35" si="1">_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E3),"/", LEFT(G3, FIND("/", G3 &amp; "/") - 1))</f>
-        <v>https://limitlesstcg.com/cards/en/PAL/203</v>
+        <f t="shared" ref="M3:M37" si="1">_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E3),"/", LEFT(G3, FIND("/", G3 &amp; "/") - 1))</f>
+        <v>https://limitlesstcg.com/cards/en/MEW/167</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="I4">
         <f>VLOOKUP(A4,Foglio1!C:D,2,FALSE)</f>
-        <v>929</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>2023</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV1S/79</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/169</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SVI/200</v>
+        <v>https://limitlesstcg.com/cards/en/MEW/169</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>2271</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(A5,Foglio1!C:D,2,FALSE)</f>
-        <v>960</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>2023</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV1S/81</v>
+        <v>https://limitlesstcg.com/cards/jp/SV3/118</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SVI/206</v>
+        <v>https://limitlesstcg.com/cards/en/OBF/207</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(A6,Foglio1!C:D,2,FALSE)</f>
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>2023</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV1V/86</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/173</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SVI/210</v>
+        <v>https://limitlesstcg.com/cards/en/MEW/173</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>151</v>
-      </c>
-      <c r="C7">
-        <v>151</v>
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2271</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(A7,Foglio1!C:D,2,FALSE)</f>
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2023</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/166</v>
+        <v>https://limitlesstcg.com/cards/jp/SV3/110</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/166</v>
+        <v>https://limitlesstcg.com/cards/en/OBF/199</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8">
-        <v>151</v>
-      </c>
-      <c r="C8">
-        <v>151</v>
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2271</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(A8,Foglio1!C:D,2,FALSE)</f>
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>2023</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/167</v>
+        <v>https://limitlesstcg.com/cards/jp/SV3/109</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/167</v>
+        <v>https://limitlesstcg.com/cards/en/OBF/198</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9">
-        <v>151</v>
-      </c>
-      <c r="C9">
-        <v>151</v>
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="I9">
-        <f>VLOOKUP(A9,Foglio1!C:D,2,FALSE)</f>
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/169</v>
+        <v>https://limitlesstcg.com/cards/jp/SV8/116</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/169</v>
+        <v>https://limitlesstcg.com/cards/en/SSP/208</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>151</v>
@@ -7691,36 +7712,36 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(A10,Foglio1!C:D,2,FALSE)</f>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="J10">
         <v>2023</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/173</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/175</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/173</v>
+        <v>https://limitlesstcg.com/cards/en/MEW/175</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>151</v>
@@ -7735,513 +7756,514 @@
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(A11,Foglio1!C:D,2,FALSE)</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J11">
         <v>2023</v>
       </c>
       <c r="K11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/175</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/176</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/175</v>
+        <v>https://limitlesstcg.com/cards/en/MEW/176</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>151</v>
-      </c>
-      <c r="C12">
-        <v>151</v>
+        <v>342</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
+        <v>2259</v>
+      </c>
+      <c r="G12">
+        <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(A12,Foglio1!C:D,2,FALSE)</f>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="J12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K12" t="s">
-        <v>6</v>
+        <v>2260</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/176</v>
+        <v>https://limitlesstcg.com/cards/jp/SV8/112</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/176</v>
+        <v>https://limitlesstcg.com/cards/en/SVP/159</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>151</v>
-      </c>
-      <c r="C13">
-        <v>151</v>
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13">
         <f>VLOOKUP(A13,Foglio1!C:D,2,FALSE)</f>
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J13">
         <v>2023</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/178</v>
+        <v>https://limitlesstcg.com/cards/jp/SV1V/86</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/178</v>
+        <v>https://limitlesstcg.com/cards/en/SVI/210</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>151</v>
-      </c>
-      <c r="C14">
-        <v>151</v>
+        <v>381</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>2261</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>2263</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>2262</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(A14,Foglio1!C:D,2,FALSE)</f>
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="J14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>2264</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/179</v>
+        <v>https://limitlesstcg.com/cards/jp/SV7A/65</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/179</v>
+        <v>https://limitlesstcg.com/cards/en/SSP/192</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>151</v>
       </c>
-      <c r="C15" t="s">
-        <v>136</v>
+      <c r="C15">
+        <v>151</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>137</v>
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(A15,Foglio1!C:D,2,FALSE)</f>
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="J15">
         <v>2023</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/183</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/178</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SVP/052</v>
+        <v>https://limitlesstcg.com/cards/en/MEW/178</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>151</v>
+      </c>
+      <c r="C16">
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(A16,Foglio1!C:D,2,FALSE)</f>
-        <v>769</v>
+        <v>122</v>
       </c>
       <c r="J16">
         <v>2023</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2D/75</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/179</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/PAL/214</v>
+        <v>https://limitlesstcg.com/cards/en/MEW/179</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I17">
-        <f>VLOOKUP(A17,Foglio1!C:D,2,FALSE)</f>
-        <v>968</v>
+        <v>128</v>
       </c>
       <c r="J17">
         <v>2023</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2P/81</v>
+        <v>https://limitlesstcg.com/cards/jp/SV1A/84</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/PAL/224</v>
+        <v>https://limitlesstcg.com/cards/en/PAL/218</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>2271</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(A18,Foglio1!C:D,2,FALSE)</f>
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="J18">
         <v>2023</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV3/118</v>
+        <v>https://limitlesstcg.com/cards/jp/SV1A/80</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/OBF/207</v>
+        <v>https://limitlesstcg.com/cards/en/PAL/203</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="B19">
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>2271</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(A19,Foglio1!C:D,2,FALSE)</f>
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="J19">
         <v>2023</v>
       </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV3/110</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/183</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/OBF/199</v>
+        <v>https://limitlesstcg.com/cards/en/SVP/052</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>637</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>2271</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>2273</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>2277</v>
       </c>
       <c r="H20" t="s">
-        <v>127</v>
+        <v>2275</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(A20,Foglio1!C:D,2,FALSE)</f>
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="J20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K20" t="s">
-        <v>135</v>
+        <v>2279</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV3/109</v>
+        <v>https://limitlesstcg.com/cards/jp/SV8/115</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/OBF/198</v>
+        <v>https://limitlesstcg.com/cards/en/SSP/205</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>168</v>
+        <v>2265</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2266</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="I21">
-        <v>985</v>
+        <f>VLOOKUP(A21,Foglio1!C:D,2,FALSE)</f>
+        <v>287</v>
       </c>
       <c r="J21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>2267</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV4K/71</v>
+        <v>https://limitlesstcg.com/cards/jp/SV8/117</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SVP/065</v>
+        <v>https://limitlesstcg.com/cards/en/SSP/212</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>2256</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>2257</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="I22">
-        <v>986</v>
+        <f>VLOOKUP(A22,Foglio1!C:D,2,FALSE)</f>
+        <v>329</v>
       </c>
       <c r="J22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>2258</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV4K/77</v>
+        <v>https://limitlesstcg.com/cards/jp/SV7A/71</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/PAR/207</v>
+        <v>https://limitlesstcg.com/cards/en/SSP/206</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -8378,46 +8400,46 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>1520</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>2257</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>2270</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>2269</v>
       </c>
       <c r="I26">
         <f>VLOOKUP(A26,Foglio1!C:D,2,FALSE)</f>
-        <v>750</v>
+        <v>666</v>
       </c>
       <c r="J26">
         <v>2024</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>2268</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV5K/78</v>
+        <v>https://limitlesstcg.com/cards/jp/SV8/71</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/TEF/175</v>
+        <v>https://limitlesstcg.com/cards/en/SSP/193</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -8466,359 +8488,446 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
         <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I28">
         <f>VLOOKUP(A28,Foglio1!C:D,2,FALSE)</f>
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="J28">
         <v>2024</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV5M/83</v>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/78</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/TEF/184</v>
+        <v>https://limitlesstcg.com/cards/en/TEF/175</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="I29">
         <f>VLOOKUP(A29,Foglio1!C:D,2,FALSE)</f>
-        <v>1011</v>
+        <v>769</v>
       </c>
       <c r="J29">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K29" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV6/103</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2D/75</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/TWM/170</v>
+        <v>https://limitlesstcg.com/cards/en/PAL/214</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>2256</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>2261</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>2263</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>2262</v>
+        <v>98</v>
       </c>
       <c r="I30">
         <f>VLOOKUP(A30,Foglio1!C:D,2,FALSE)</f>
-        <v>102</v>
+        <v>780</v>
       </c>
       <c r="J30">
         <v>2024</v>
       </c>
       <c r="K30" t="s">
-        <v>2264</v>
+        <v>99</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV7A/65</v>
+        <v>https://limitlesstcg.com/cards/jp/SV5M/83</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/192</v>
+        <v>https://limitlesstcg.com/cards/en/TEF/184</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>2056</v>
       </c>
       <c r="B31" t="s">
-        <v>2256</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>2257</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>2276</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
+        <v>2274</v>
       </c>
       <c r="I31">
         <f>VLOOKUP(A31,Foglio1!C:D,2,FALSE)</f>
-        <v>329</v>
+        <v>925</v>
       </c>
       <c r="J31">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K31" t="s">
-        <v>2258</v>
+        <v>2278</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV7A/71</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2D/81</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/206</v>
+        <v>https://limitlesstcg.com/cards/en/PAL/226</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="I32">
-        <v>51</v>
+        <f>VLOOKUP(A32,Foglio1!C:D,2,FALSE)</f>
+        <v>929</v>
       </c>
       <c r="J32">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K32" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV8/116</v>
+        <v>https://limitlesstcg.com/cards/jp/SV1S/79</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/208</v>
+        <v>https://limitlesstcg.com/cards/en/SVI/200</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>2259</v>
-      </c>
-      <c r="G33">
-        <v>159</v>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I33">
         <f>VLOOKUP(A33,Foglio1!C:D,2,FALSE)</f>
-        <v>82</v>
+        <v>960</v>
       </c>
       <c r="J33">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K33" t="s">
-        <v>2260</v>
+        <v>7</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV8/112</v>
+        <v>https://limitlesstcg.com/cards/jp/SV1S/81</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SVP/159</v>
+        <v>https://limitlesstcg.com/cards/en/SVI/206</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>750</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>2265</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>2266</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I34">
         <f>VLOOKUP(A34,Foglio1!C:D,2,FALSE)</f>
-        <v>287</v>
+        <v>968</v>
       </c>
       <c r="J34">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K34" t="s">
-        <v>2267</v>
+        <v>37</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV8/117</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2P/81</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/212</v>
+        <v>https://limitlesstcg.com/cards/en/PAL/224</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1520</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>2257</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2270</v>
+        <v>164</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="H35" t="s">
-        <v>2269</v>
+        <v>165</v>
       </c>
       <c r="I35">
-        <f>VLOOKUP(A35,Foglio1!C:D,2,FALSE)</f>
-        <v>666</v>
+        <v>985</v>
       </c>
       <c r="J35">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K35" t="s">
-        <v>2268</v>
+        <v>167</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="0"/>
-        <v>https://limitlesstcg.com/cards/jp/SV8/71</v>
+        <v>https://limitlesstcg.com/cards/jp/SV4K/71</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="1"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/193</v>
+        <v>https://limitlesstcg.com/cards/en/SVP/065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36">
+        <v>986</v>
+      </c>
+      <c r="J36">
+        <v>2023</v>
+      </c>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV4K/77</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAR/207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37">
+        <f>VLOOKUP(A37,Foglio1!C:D,2,FALSE)</f>
+        <v>1011</v>
+      </c>
+      <c r="J37">
+        <v>2024</v>
+      </c>
+      <c r="K37" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV6/103</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TWM/170</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K35">
-      <sortCondition ref="D1:D35"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K37">
+      <sortCondition ref="I1:I37"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8830,8 +8939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9253F83-CBC8-2E44-B556-48D529F94262}">
   <dimension ref="A1:AJ1034"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/PokemonGuide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A930C03-D005-3E44-89DB-B95C94E62C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770052A2-64AB-714F-AD62-036D2299E264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="30800" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
+    <workbookView xWindow="2420" yWindow="1300" windowWidth="30800" windowHeight="17440" xr2:uid="{42484EAC-2F55-3747-8DEF-5F163D59C4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="3293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="3302">
   <si>
     <t>set</t>
   </si>
@@ -9922,6 +9922,33 @@
   </si>
   <si>
     <t>annotxt</t>
+  </si>
+  <si>
+    <t>s12a</t>
+  </si>
+  <si>
+    <t>sv4M</t>
+  </si>
+  <si>
+    <t>CRZ</t>
+  </si>
+  <si>
+    <t>76/66</t>
+  </si>
+  <si>
+    <t>213/182</t>
+  </si>
+  <si>
+    <t>Jiro Sasumo</t>
+  </si>
+  <si>
+    <t>gg10/gg70</t>
+  </si>
+  <si>
+    <t>183/172</t>
+  </si>
+  <si>
+    <t>Ryota Murayama</t>
   </si>
 </sst>
 </file>
@@ -10337,10 +10364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10406,53 +10433,54 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(D2,Foglio3!B:D,2,FALSE)</f>
-        <v>violet-ex</v>
+        <v>vstar-universe</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(E2,Foglio5!B:D,2,FALSE)</f>
-        <v>scarlet-&amp;-violet</v>
+        <v>crown-zenith</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>22</v>
+        <v>3293</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>45</v>
+        <v>3295</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>6</v>
+        <v>3300</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>49</v>
+        <v>3299</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>62</v>
+        <v>3301</v>
       </c>
       <c r="I2">
         <f>VLOOKUP(A2,Foglio1!C:D,2,FALSE)</f>
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="J2" s="8">
-        <v>44946</v>
+        <f>VLOOKUP(D2,Foglio3!B:D,3,FALSE)</f>
+        <v>44897</v>
       </c>
       <c r="K2" s="8" t="str">
         <f>TEXT(J2,"gg mmmm aaaa")</f>
-        <v>20 gennaio 2023</v>
+        <v>02 dicembre 2022</v>
       </c>
       <c r="L2" t="str">
         <f>LOWER(A2)</f>
-        <v>drowzee</v>
+        <v>mew</v>
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D2),"/", LEFT(F2, FIND("/", F2 &amp; "/") - 1))</f>
-        <v>https://limitlesstcg.com/cards/jp/SV1V/86</v>
+        <v>https://limitlesstcg.com/cards/jp/S12A/183</v>
       </c>
       <c r="N2" t="str">
         <f>_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E2),"/", LEFT(G2, FIND("/", G2 &amp; "/") - 1))</f>
-        <v>https://limitlesstcg.com/cards/en/SVI/210</v>
+        <v>https://limitlesstcg.com/cards/en/CRZ/gg10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10487,22 +10515,23 @@
         <v>929</v>
       </c>
       <c r="J3" s="8">
+        <f>VLOOKUP(D3,Foglio3!B:D,3,FALSE)</f>
         <v>44946</v>
       </c>
       <c r="K3" s="8" t="str">
-        <f t="shared" ref="K3:K37" si="0">TEXT(J3,"gg mmmm aaaa")</f>
+        <f>TEXT(J3,"gg mmmm aaaa")</f>
         <v>20 gennaio 2023</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L4" si="1">LOWER(A3)</f>
+        <f>LOWER(A3)</f>
         <v>dolliv</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M37" si="2">_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D3),"/", LEFT(F3, FIND("/", F3 &amp; "/") - 1))</f>
+        <f t="shared" ref="M3:M37" si="0">_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D3),"/", LEFT(F3, FIND("/", F3 &amp; "/") - 1))</f>
         <v>https://limitlesstcg.com/cards/jp/SV1S/79</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N37" si="3">_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E3),"/", LEFT(G3, FIND("/", G3 &amp; "/") - 1))</f>
+        <f t="shared" ref="N3:N37" si="1">_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E3),"/", LEFT(G3, FIND("/", G3 &amp; "/") - 1))</f>
         <v>https://limitlesstcg.com/cards/en/SVI/200</v>
       </c>
     </row>
@@ -10538,77 +10567,81 @@
         <v>960</v>
       </c>
       <c r="J4" s="8">
+        <f>VLOOKUP(D4,Foglio3!B:D,3,FALSE)</f>
         <v>44946</v>
       </c>
       <c r="K4" s="8" t="str">
+        <f>TEXT(J4,"gg mmmm aaaa")</f>
+        <v>20 gennaio 2023</v>
+      </c>
+      <c r="L4" t="str">
+        <f>LOWER(A4)</f>
+        <v>wiglett</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>20 gennaio 2023</v>
-      </c>
-      <c r="L4" t="str">
+        <v>https://limitlesstcg.com/cards/jp/SV1S/81</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v>wiglett</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV1S/81</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="3"/>
         <v>https://limitlesstcg.com/cards/en/SVI/206</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(D5,Foglio3!B:D,2,FALSE)</f>
-        <v>triplet-beat</v>
+        <v>violet-ex</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(E5,Foglio5!B:D,2,FALSE)</f>
-        <v>paldea-evolved</v>
+        <v>scarlet-&amp;-violet</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5">
-        <v>128</v>
+        <f>VLOOKUP(A5,Foglio1!C:D,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="J5" s="8">
-        <v>44995</v>
+        <f>VLOOKUP(D5,Foglio3!B:D,3,FALSE)</f>
+        <v>44946</v>
       </c>
       <c r="K5" s="8" t="str">
+        <f>TEXT(J5,"gg mmmm aaaa")</f>
+        <v>20 gennaio 2023</v>
+      </c>
+      <c r="L5" t="str">
+        <f>LOWER(A5)</f>
+        <v>drowzee</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>10 marzo 2023</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV1A/84</v>
+        <v>https://limitlesstcg.com/cards/jp/SV1V/86</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/PAL/218</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVI/210</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(D6,Foglio3!B:D,2,FALSE)</f>
@@ -10625,92 +10658,92 @@
         <v>46</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6">
-        <f>VLOOKUP(A6,Foglio1!C:D,2,FALSE)</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="8">
+        <f>VLOOKUP(D6,Foglio3!B:D,3,FALSE)</f>
         <v>44995</v>
       </c>
       <c r="K6" s="8" t="str">
+        <f>TEXT(J6,"gg mmmm aaaa")</f>
+        <v>10 marzo 2023</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>10 marzo 2023</v>
-      </c>
-      <c r="L6" t="str">
-        <f>LOWER(A6)</f>
-        <v>magikarp</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV1A/80</v>
+        <v>https://limitlesstcg.com/cards/jp/SV1A/84</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/PAL/203</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAL/218</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(D7,Foglio3!B:D,2,FALSE)</f>
-        <v>clay-burst</v>
+        <v>triplet-beat</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(E7,Foglio5!B:D,2,FALSE)</f>
         <v>paldea-evolved</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7">
         <f>VLOOKUP(A7,Foglio1!C:D,2,FALSE)</f>
-        <v>769</v>
+        <v>129</v>
       </c>
       <c r="J7" s="8">
-        <v>45030</v>
+        <f>VLOOKUP(D7,Foglio3!B:D,3,FALSE)</f>
+        <v>44995</v>
       </c>
       <c r="K7" s="8" t="str">
+        <f>TEXT(J7,"gg mmmm aaaa")</f>
+        <v>10 marzo 2023</v>
+      </c>
+      <c r="L7" t="str">
+        <f>LOWER(A7)</f>
+        <v>magikarp</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>14 aprile 2023</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" ref="L7:L37" si="4">LOWER(A7)</f>
-        <v>sandygast</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2D/75</v>
+        <v>https://limitlesstcg.com/cards/jp/SV1A/80</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/PAL/214</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAL/203</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>2023</v>
+        <v>39</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(D8,Foglio3!B:D,2,FALSE)</f>
@@ -10727,52 +10760,53 @@
         <v>46</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>2237</v>
+        <v>52</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>2235</v>
+        <v>66</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(A8,Foglio1!C:D,2,FALSE)</f>
-        <v>925</v>
+        <v>769</v>
       </c>
       <c r="J8" s="8">
+        <f>VLOOKUP(D8,Foglio3!B:D,3,FALSE)</f>
         <v>45030</v>
       </c>
       <c r="K8" s="8" t="str">
+        <f>TEXT(J8,"gg mmmm aaaa")</f>
+        <v>14 aprile 2023</v>
+      </c>
+      <c r="L8" t="str">
+        <f>LOWER(A8)</f>
+        <v>sandygast</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>14 aprile 2023</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="4"/>
-        <v>maushold</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2D/81</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2D/75</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/PAL/226</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAL/214</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>42</v>
+        <v>2023</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(D9,Foglio3!B:D,2,FALSE)</f>
-        <v>snow-hazard</v>
+        <v>clay-burst</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(E9,Foglio5!B:D,2,FALSE)</f>
         <v>paldea-evolved</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>46</v>
@@ -10781,89 +10815,91 @@
         <v>29</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>55</v>
+        <v>2237</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>57</v>
+        <v>2235</v>
       </c>
       <c r="I9">
         <f>VLOOKUP(A9,Foglio1!C:D,2,FALSE)</f>
-        <v>968</v>
+        <v>925</v>
       </c>
       <c r="J9" s="8">
+        <f>VLOOKUP(D9,Foglio3!B:D,3,FALSE)</f>
         <v>45030</v>
       </c>
       <c r="K9" s="8" t="str">
+        <f>TEXT(J9,"gg mmmm aaaa")</f>
+        <v>14 aprile 2023</v>
+      </c>
+      <c r="L9" t="str">
+        <f>LOWER(A9)</f>
+        <v>maushold</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>14 aprile 2023</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="4"/>
-        <v>orthworm</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2P/81</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2D/81</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/PAL/224</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAL/226</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="B10" t="str">
         <f>VLOOKUP(D10,Foglio3!B:D,2,FALSE)</f>
-        <v>151</v>
-      </c>
-      <c r="C10">
+        <v>snow-hazard</v>
+      </c>
+      <c r="C10" t="str">
         <f>VLOOKUP(E10,Foglio5!B:D,2,FALSE)</f>
-        <v>151</v>
+        <v>paldea-evolved</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I10">
         <f>VLOOKUP(A10,Foglio1!C:D,2,FALSE)</f>
-        <v>1</v>
+        <v>968</v>
       </c>
       <c r="J10" s="8">
-        <v>45093</v>
+        <f>VLOOKUP(D10,Foglio3!B:D,3,FALSE)</f>
+        <v>45030</v>
       </c>
       <c r="K10" s="8" t="str">
+        <f>TEXT(J10,"gg mmmm aaaa")</f>
+        <v>14 aprile 2023</v>
+      </c>
+      <c r="L10" t="str">
+        <f>LOWER(A10)</f>
+        <v>orthworm</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="4"/>
-        <v>bulbasaur</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/166</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2P/81</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/166</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAL/224</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <f>VLOOKUP(D11,Foglio3!B:D,2,FALSE)</f>
@@ -10880,41 +10916,42 @@
         <v>44</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>89</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(A11,Foglio1!C:D,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8">
+        <f>VLOOKUP(D11,Foglio3!B:D,3,FALSE)</f>
         <v>45093</v>
       </c>
       <c r="K11" s="8" t="str">
+        <f>TEXT(J11,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L11" t="str">
+        <f>LOWER(A11)</f>
+        <v>bulbasaur</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="4"/>
-        <v>ivysaur</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/167</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/166</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/167</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/166</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <f>VLOOKUP(D12,Foglio3!B:D,2,FALSE)</f>
@@ -10931,41 +10968,42 @@
         <v>44</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(A12,Foglio1!C:D,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="8">
+        <f>VLOOKUP(D12,Foglio3!B:D,3,FALSE)</f>
         <v>45093</v>
       </c>
       <c r="K12" s="8" t="str">
+        <f>TEXT(J12,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L12" t="str">
+        <f>LOWER(A12)</f>
+        <v>ivysaur</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="4"/>
-        <v>charmeleon</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/169</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/167</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/169</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/167</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <f>VLOOKUP(D13,Foglio3!B:D,2,FALSE)</f>
@@ -10982,41 +11020,42 @@
         <v>44</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="I13">
         <f>VLOOKUP(A13,Foglio1!C:D,2,FALSE)</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J13" s="8">
+        <f>VLOOKUP(D13,Foglio3!B:D,3,FALSE)</f>
         <v>45093</v>
       </c>
       <c r="K13" s="8" t="str">
+        <f>TEXT(J13,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L13" t="str">
+        <f>LOWER(A13)</f>
+        <v>charmeleon</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="4"/>
-        <v>pikachu</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/173</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/169</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/173</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/169</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <f>VLOOKUP(D14,Foglio3!B:D,2,FALSE)</f>
@@ -11033,41 +11072,42 @@
         <v>44</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14">
         <f>VLOOKUP(A14,Foglio1!C:D,2,FALSE)</f>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J14" s="8">
+        <f>VLOOKUP(D14,Foglio3!B:D,3,FALSE)</f>
         <v>45093</v>
       </c>
       <c r="K14" s="8" t="str">
+        <f>TEXT(J14,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L14" t="str">
+        <f>LOWER(A14)</f>
+        <v>pikachu</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="4"/>
-        <v>psyduck</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/175</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/173</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/175</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/173</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <f>VLOOKUP(D15,Foglio3!B:D,2,FALSE)</f>
@@ -11084,41 +11124,42 @@
         <v>44</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15">
         <f>VLOOKUP(A15,Foglio1!C:D,2,FALSE)</f>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J15" s="8">
+        <f>VLOOKUP(D15,Foglio3!B:D,3,FALSE)</f>
         <v>45093</v>
       </c>
       <c r="K15" s="8" t="str">
+        <f>TEXT(J15,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L15" t="str">
+        <f>LOWER(A15)</f>
+        <v>psyduck</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="4"/>
-        <v>poliwhirl</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/176</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/175</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/176</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/175</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <f>VLOOKUP(D16,Foglio3!B:D,2,FALSE)</f>
@@ -11135,41 +11176,42 @@
         <v>44</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(A16,Foglio1!C:D,2,FALSE)</f>
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="J16" s="8">
+        <f>VLOOKUP(D16,Foglio3!B:D,3,FALSE)</f>
         <v>45093</v>
       </c>
       <c r="K16" s="8" t="str">
+        <f>TEXT(J16,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L16" t="str">
+        <f>LOWER(A16)</f>
+        <v>poliwhirl</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="4"/>
-        <v>tangela</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/178</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/176</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/178</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/176</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <f>VLOOKUP(D17,Foglio3!B:D,2,FALSE)</f>
@@ -11186,142 +11228,145 @@
         <v>44</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I17">
         <f>VLOOKUP(A17,Foglio1!C:D,2,FALSE)</f>
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J17" s="8">
+        <f>VLOOKUP(D17,Foglio3!B:D,3,FALSE)</f>
         <v>45093</v>
       </c>
       <c r="K17" s="8" t="str">
+        <f>TEXT(J17,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L17" t="str">
+        <f>LOWER(A17)</f>
+        <v>tangela</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L17" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/179</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/178</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/MEW/179</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/178</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B18">
         <f>VLOOKUP(D18,Foglio3!B:D,2,FALSE)</f>
         <v>151</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <f>VLOOKUP(E18,Foglio5!B:D,2,FALSE)</f>
-        <v>scarlet-&amp;-violet-promos</v>
+        <v>151</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(A18,Foglio1!C:D,2,FALSE)</f>
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="J18" s="8">
+        <f>VLOOKUP(D18,Foglio3!B:D,3,FALSE)</f>
         <v>45093</v>
       </c>
       <c r="K18" s="8" t="str">
+        <f>TEXT(J18,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v>16 giugno 2023</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="4"/>
-        <v>mewtwo</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV2A/183</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/179</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/SVP/052</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/MEW/179</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" t="str">
+        <v>94</v>
+      </c>
+      <c r="B19">
         <f>VLOOKUP(D19,Foglio3!B:D,2,FALSE)</f>
-        <v>ruler-of-the-black-flame</v>
+        <v>151</v>
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(E19,Foglio5!B:D,2,FALSE)</f>
-        <v>obsidian-flames</v>
+        <v>scarlet-&amp;-violet-promos</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>125</v>
+        <v>95</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="I19">
         <f>VLOOKUP(A19,Foglio1!C:D,2,FALSE)</f>
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="J19" s="8">
-        <v>45135</v>
+        <f>VLOOKUP(D19,Foglio3!B:D,3,FALSE)</f>
+        <v>45093</v>
       </c>
       <c r="K19" s="8" t="str">
+        <f>TEXT(J19,"gg mmmm aaaa")</f>
+        <v>16 giugno 2023</v>
+      </c>
+      <c r="L19" t="str">
+        <f>LOWER(A19)</f>
+        <v>mewtwo</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="0"/>
-        <v>28 luglio 2023</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="4"/>
-        <v>pidgey</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV3/118</v>
+        <v>https://limitlesstcg.com/cards/jp/SV2A/183</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/OBF/207</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVP/052</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(D20,Foglio3!B:D,2,FALSE)</f>
@@ -11338,41 +11383,42 @@
         <v>107</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(A20,Foglio1!C:D,2,FALSE)</f>
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J20" s="8">
+        <f>VLOOKUP(D20,Foglio3!B:D,3,FALSE)</f>
         <v>45135</v>
       </c>
       <c r="K20" s="8" t="str">
+        <f>TEXT(J20,"gg mmmm aaaa")</f>
+        <v>28 luglio 2023</v>
+      </c>
+      <c r="L20" t="str">
+        <f>LOWER(A20)</f>
+        <v>pidgey</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="0"/>
-        <v>28 luglio 2023</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="4"/>
-        <v>ninetales</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV3/110</v>
+        <v>https://limitlesstcg.com/cards/jp/SV3/118</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/OBF/199</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/OBF/207</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(D21,Foglio3!B:D,2,FALSE)</f>
@@ -11389,91 +11435,94 @@
         <v>107</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(A21,Foglio1!C:D,2,FALSE)</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J21" s="8">
+        <f>VLOOKUP(D21,Foglio3!B:D,3,FALSE)</f>
         <v>45135</v>
       </c>
       <c r="K21" s="8" t="str">
+        <f>TEXT(J21,"gg mmmm aaaa")</f>
+        <v>28 luglio 2023</v>
+      </c>
+      <c r="L21" t="str">
+        <f>LOWER(A21)</f>
+        <v>ninetales</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>28 luglio 2023</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="4"/>
-        <v>gloom</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV3/109</v>
+        <v>https://limitlesstcg.com/cards/jp/SV3/110</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/OBF/198</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/OBF/199</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(D22,Foglio3!B:D,2,FALSE)</f>
-        <v>ancient-roar</v>
+        <v>ruler-of-the-black-flame</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(E22,Foglio5!B:D,2,FALSE)</f>
-        <v>scarlet-&amp;-violet-promos</v>
+        <v>obsidian-flames</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>136</v>
+        <v>110</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="I22">
-        <v>985</v>
+        <f>VLOOKUP(A22,Foglio1!C:D,2,FALSE)</f>
+        <v>44</v>
       </c>
       <c r="J22" s="8">
-        <v>45226</v>
+        <f>VLOOKUP(D22,Foglio3!B:D,3,FALSE)</f>
+        <v>45135</v>
       </c>
       <c r="K22" s="8" t="str">
+        <f>TEXT(J22,"gg mmmm aaaa")</f>
+        <v>28 luglio 2023</v>
+      </c>
+      <c r="L22" t="str">
+        <f>LOWER(A22)</f>
+        <v>gloom</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="0"/>
-        <v>27 ottobre 2023</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="4"/>
-        <v>codaurlante</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV4K/71</v>
+        <v>https://limitlesstcg.com/cards/jp/SV3/109</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/SVP/065</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/OBF/198</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(D23,Foglio3!B:D,2,FALSE)</f>
@@ -11481,151 +11530,153 @@
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(E23,Foglio5!B:D,2,FALSE)</f>
-        <v>paradox-rift</v>
+        <v>scarlet-&amp;-violet-promos</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>77</v>
+        <v>133</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I23">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J23" s="8">
+        <f>VLOOKUP(D23,Foglio3!B:D,3,FALSE)</f>
         <v>45226</v>
       </c>
       <c r="K23" s="8" t="str">
+        <f>TEXT(J23,"gg mmmm aaaa")</f>
+        <v>27 ottobre 2023</v>
+      </c>
+      <c r="L23" t="str">
+        <f>LOWER(A23)</f>
+        <v>codaurlante</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="0"/>
-        <v>27 ottobre 2023</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="4"/>
-        <v>fungofurioso</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV4K/77</v>
+        <v>https://limitlesstcg.com/cards/jp/SV4K/71</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/PAR/207</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVP/065</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(D24,Foglio3!B:D,2,FALSE)</f>
-        <v>wild-force</v>
+        <v>ancient-roar</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(E24,Foglio5!B:D,2,FALSE)</f>
-        <v>temporal-forces</v>
+        <v>paradox-rift</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I24">
-        <f>VLOOKUP(A24,Foglio1!C:D,2,FALSE)</f>
-        <v>388</v>
+        <v>986</v>
       </c>
       <c r="J24" s="8">
-        <v>45317</v>
+        <f>VLOOKUP(D24,Foglio3!B:D,3,FALSE)</f>
+        <v>45226</v>
       </c>
       <c r="K24" s="8" t="str">
+        <f>TEXT(J24,"gg mmmm aaaa")</f>
+        <v>27 ottobre 2023</v>
+      </c>
+      <c r="L24" t="str">
+        <f>LOWER(A24)</f>
+        <v>fungofurioso</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" si="0"/>
-        <v>26 gennaio 2024</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="4"/>
-        <v>grotle</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV5K/72</v>
+        <v>https://limitlesstcg.com/cards/jp/SV4K/77</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/TEF/164</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAR/207</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>120</v>
+        <v>808</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(D25,Foglio3!B:D,2,FALSE)</f>
-        <v>wild-force</v>
+        <v>future-flash</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(E25,Foglio5!B:D,2,FALSE)</f>
-        <v>temporal-forces</v>
+        <v>paradox-rift</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>24</v>
+        <v>3294</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>117</v>
+        <v>3296</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>118</v>
+        <v>3297</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>116</v>
+        <v>3298</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(A25,Foglio1!C:D,2,FALSE)</f>
-        <v>572</v>
+        <v>333</v>
       </c>
       <c r="J25" s="8">
-        <v>45317</v>
+        <f>VLOOKUP(D25,Foglio3!B:D,3,FALSE)</f>
+        <v>45226</v>
       </c>
       <c r="K25" s="8" t="str">
+        <f>TEXT(J25,"gg mmmm aaaa")</f>
+        <v>27 ottobre 2023</v>
+      </c>
+      <c r="L25" t="str">
+        <f>LOWER(A25)</f>
+        <v>swablu</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" si="0"/>
-        <v>26 gennaio 2024</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="4"/>
-        <v>minccino</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV5K/82</v>
+        <v>https://limitlesstcg.com/cards/jp/SV4M/76</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/TEF/182</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/PAR/213</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(D26,Foglio3!B:D,2,FALSE)</f>
@@ -11642,92 +11693,94 @@
         <v>47</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="I26">
         <f>VLOOKUP(A26,Foglio1!C:D,2,FALSE)</f>
-        <v>573</v>
+        <v>388</v>
       </c>
       <c r="J26" s="8">
+        <f>VLOOKUP(D26,Foglio3!B:D,3,FALSE)</f>
         <v>45317</v>
       </c>
       <c r="K26" s="8" t="str">
+        <f>TEXT(J26,"gg mmmm aaaa")</f>
+        <v>26 gennaio 2024</v>
+      </c>
+      <c r="L26" t="str">
+        <f>LOWER(A26)</f>
+        <v>grotle</v>
+      </c>
+      <c r="M26" t="str">
         <f t="shared" si="0"/>
-        <v>26 gennaio 2024</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="4"/>
-        <v>cinccino</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV5K/83</v>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/72</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/TEF/183</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/164</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(D27,Foglio3!B:D,2,FALSE)</f>
-        <v>cyber-judge</v>
+        <v>wild-force</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(E27,Foglio5!B:D,2,FALSE)</f>
         <v>temporal-forces</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="I27">
         <f>VLOOKUP(A27,Foglio1!C:D,2,FALSE)</f>
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="J27" s="8">
+        <f>VLOOKUP(D27,Foglio3!B:D,3,FALSE)</f>
         <v>45317</v>
       </c>
       <c r="K27" s="8" t="str">
+        <f>TEXT(J27,"gg mmmm aaaa")</f>
+        <v>26 gennaio 2024</v>
+      </c>
+      <c r="L27" t="str">
+        <f>LOWER(A27)</f>
+        <v>minccino</v>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" si="0"/>
-        <v>26 gennaio 2024</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="4"/>
-        <v>litten</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV5M/75</v>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/82</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/TEF/167</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/182</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(D28,Foglio3!B:D,2,FALSE)</f>
@@ -11744,345 +11797,354 @@
         <v>47</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="I28">
         <f>VLOOKUP(A28,Foglio1!C:D,2,FALSE)</f>
-        <v>750</v>
+        <v>573</v>
       </c>
       <c r="J28" s="8">
+        <f>VLOOKUP(D28,Foglio3!B:D,3,FALSE)</f>
         <v>45317</v>
       </c>
       <c r="K28" s="8" t="str">
+        <f>TEXT(J28,"gg mmmm aaaa")</f>
+        <v>26 gennaio 2024</v>
+      </c>
+      <c r="L28" t="str">
+        <f>LOWER(A28)</f>
+        <v>cinccino</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="0"/>
-        <v>26 gennaio 2024</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="4"/>
-        <v>mudsdale</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV5K/78</v>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/83</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/TEF/175</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/183</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B29" t="str">
         <f>VLOOKUP(D29,Foglio3!B:D,2,FALSE)</f>
-        <v>cyber-judge</v>
+        <v>wild-force</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(E29,Foglio5!B:D,2,FALSE)</f>
         <v>temporal-forces</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I29">
         <f>VLOOKUP(A29,Foglio1!C:D,2,FALSE)</f>
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="J29" s="8">
+        <f>VLOOKUP(D29,Foglio3!B:D,3,FALSE)</f>
         <v>45317</v>
       </c>
       <c r="K29" s="8" t="str">
+        <f>TEXT(J29,"gg mmmm aaaa")</f>
+        <v>26 gennaio 2024</v>
+      </c>
+      <c r="L29" t="str">
+        <f>LOWER(A29)</f>
+        <v>mudsdale</v>
+      </c>
+      <c r="M29" t="str">
         <f t="shared" si="0"/>
-        <v>26 gennaio 2024</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="4"/>
-        <v>drampa</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV5M/83</v>
+        <v>https://limitlesstcg.com/cards/jp/SV5K/78</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/TEF/184</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/175</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B30" t="str">
         <f>VLOOKUP(D30,Foglio3!B:D,2,FALSE)</f>
-        <v>mask-of-change</v>
+        <v>cyber-judge</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(E30,Foglio5!B:D,2,FALSE)</f>
-        <v>twilight-masquerade</v>
+        <v>temporal-forces</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="I30">
         <f>VLOOKUP(A30,Foglio1!C:D,2,FALSE)</f>
-        <v>1011</v>
+        <v>725</v>
       </c>
       <c r="J30" s="8">
-        <v>45408</v>
+        <f>VLOOKUP(D30,Foglio3!B:D,3,FALSE)</f>
+        <v>45317</v>
       </c>
       <c r="K30" s="8" t="str">
+        <f>TEXT(J30,"gg mmmm aaaa")</f>
+        <v>26 gennaio 2024</v>
+      </c>
+      <c r="L30" t="str">
+        <f>LOWER(A30)</f>
+        <v>litten</v>
+      </c>
+      <c r="M30" t="str">
         <f t="shared" si="0"/>
-        <v>26 aprile 2024</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="4"/>
-        <v>dipplin</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV6/103</v>
+        <v>https://limitlesstcg.com/cards/jp/SV5M/75</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/TWM/170</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/167</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="B31" t="str">
         <f>VLOOKUP(D31,Foglio3!B:D,2,FALSE)</f>
-        <v>paradise-dragona</v>
+        <v>cyber-judge</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(E31,Foglio5!B:D,2,FALSE)</f>
-        <v>surging-sparks</v>
+        <v>temporal-forces</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>2226</v>
+        <v>81</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>2228</v>
+        <v>86</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>2227</v>
+        <v>82</v>
       </c>
       <c r="I31">
         <f>VLOOKUP(A31,Foglio1!C:D,2,FALSE)</f>
-        <v>102</v>
+        <v>780</v>
       </c>
       <c r="J31" s="8">
-        <v>45548</v>
+        <f>VLOOKUP(D31,Foglio3!B:D,3,FALSE)</f>
+        <v>45317</v>
       </c>
       <c r="K31" s="8" t="str">
+        <f>TEXT(J31,"gg mmmm aaaa")</f>
+        <v>26 gennaio 2024</v>
+      </c>
+      <c r="L31" t="str">
+        <f>LOWER(A31)</f>
+        <v>drampa</v>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" si="0"/>
-        <v>13 settembre 2024</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="4"/>
-        <v>exeggcute</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV7A/65</v>
+        <v>https://limitlesstcg.com/cards/jp/SV5M/83</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/192</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TEF/184</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B32" t="str">
         <f>VLOOKUP(D32,Foglio3!B:D,2,FALSE)</f>
-        <v>paradise-dragona</v>
+        <v>mask-of-change</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(E32,Foglio5!B:D,2,FALSE)</f>
-        <v>surging-sparks</v>
+        <v>twilight-masquerade</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>2224</v>
+        <v>126</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="I32">
         <f>VLOOKUP(A32,Foglio1!C:D,2,FALSE)</f>
-        <v>329</v>
+        <v>1011</v>
       </c>
       <c r="J32" s="8">
-        <v>45548</v>
+        <f>VLOOKUP(D32,Foglio3!B:D,3,FALSE)</f>
+        <v>45408</v>
       </c>
       <c r="K32" s="8" t="str">
+        <f>TEXT(J32,"gg mmmm aaaa")</f>
+        <v>26 aprile 2024</v>
+      </c>
+      <c r="L32" t="str">
+        <f>LOWER(A32)</f>
+        <v>dipplin</v>
+      </c>
+      <c r="M32" t="str">
         <f t="shared" si="0"/>
-        <v>13 settembre 2024</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="4"/>
-        <v>vibrava</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV7A/71</v>
+        <v>https://limitlesstcg.com/cards/jp/SV6/103</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/206</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/TWM/170</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>138</v>
+        <v>348</v>
       </c>
       <c r="B33" t="str">
         <f>VLOOKUP(D33,Foglio3!B:D,2,FALSE)</f>
-        <v>super-electric-breaker</v>
+        <v>paradise-dragona</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(E33,Foglio5!B:D,2,FALSE)</f>
         <v>surging-sparks</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>140</v>
+        <v>2226</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>143</v>
+        <v>2228</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>141</v>
+        <v>2227</v>
       </c>
       <c r="I33">
-        <v>51</v>
+        <f>VLOOKUP(A33,Foglio1!C:D,2,FALSE)</f>
+        <v>102</v>
       </c>
       <c r="J33" s="8">
-        <v>45583</v>
+        <f>VLOOKUP(D33,Foglio3!B:D,3,FALSE)</f>
+        <v>45548</v>
       </c>
       <c r="K33" s="8" t="str">
+        <f>TEXT(J33,"gg mmmm aaaa")</f>
+        <v>13 settembre 2024</v>
+      </c>
+      <c r="L33" t="str">
+        <f>LOWER(A33)</f>
+        <v>exeggcute</v>
+      </c>
+      <c r="M33" t="str">
         <f t="shared" si="0"/>
-        <v>18 ottobre 2024</v>
-      </c>
-      <c r="L33" t="s">
-        <v>144</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV8/116</v>
+        <v>https://limitlesstcg.com/cards/jp/SV7A/65</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/208</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/192</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>309</v>
+        <v>146</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(D34,Foglio3!B:D,2,FALSE)</f>
-        <v>super-electric-breaker</v>
+        <v>paradise-dragona</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(E34,Foglio5!B:D,2,FALSE)</f>
-        <v>scarlet-&amp;-violet-promos</v>
+        <v>surging-sparks</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>2225</v>
-      </c>
-      <c r="G34" s="9">
-        <v>159</v>
+        <v>2224</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="I34">
         <f>VLOOKUP(A34,Foglio1!C:D,2,FALSE)</f>
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="J34" s="8">
-        <v>45583</v>
+        <f>VLOOKUP(D34,Foglio3!B:D,3,FALSE)</f>
+        <v>45548</v>
       </c>
       <c r="K34" s="8" t="str">
+        <f>TEXT(J34,"gg mmmm aaaa")</f>
+        <v>13 settembre 2024</v>
+      </c>
+      <c r="L34" t="str">
+        <f>LOWER(A34)</f>
+        <v>vibrava</v>
+      </c>
+      <c r="M34" t="str">
         <f t="shared" si="0"/>
-        <v>18 ottobre 2024</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="4"/>
-        <v>magneton</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV8/112</v>
+        <v>https://limitlesstcg.com/cards/jp/SV7A/71</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/SVP/159</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/206</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>604</v>
+        <v>138</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(D35,Foglio3!B:D,2,FALSE)</f>
@@ -12099,41 +12161,40 @@
         <v>142</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>2234</v>
+        <v>140</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>2238</v>
+        <v>143</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>2236</v>
+        <v>141</v>
       </c>
       <c r="I35">
-        <f>VLOOKUP(A35,Foglio1!C:D,2,FALSE)</f>
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="J35" s="8">
+        <f>VLOOKUP(D35,Foglio3!B:D,3,FALSE)</f>
         <v>45583</v>
       </c>
       <c r="K35" s="8" t="str">
+        <f>TEXT(J35,"gg mmmm aaaa")</f>
+        <v>18 ottobre 2024</v>
+      </c>
+      <c r="L35" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" t="str">
         <f t="shared" si="0"/>
-        <v>18 ottobre 2024</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="4"/>
-        <v>phanpy</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV8/115</v>
+        <v>https://limitlesstcg.com/cards/jp/SV8/116</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/205</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/208</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>717</v>
+        <v>309</v>
       </c>
       <c r="B36" t="str">
         <f>VLOOKUP(D36,Foglio3!B:D,2,FALSE)</f>
@@ -12141,50 +12202,51 @@
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(E36,Foglio5!B:D,2,FALSE)</f>
-        <v>surging-sparks</v>
+        <v>scarlet-&amp;-violet-promos</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>139</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>2229</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>2230</v>
+        <v>2225</v>
+      </c>
+      <c r="G36" s="9">
+        <v>159</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I36">
         <f>VLOOKUP(A36,Foglio1!C:D,2,FALSE)</f>
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="J36" s="8">
+        <f>VLOOKUP(D36,Foglio3!B:D,3,FALSE)</f>
         <v>45583</v>
       </c>
       <c r="K36" s="8" t="str">
+        <f>TEXT(J36,"gg mmmm aaaa")</f>
+        <v>18 ottobre 2024</v>
+      </c>
+      <c r="L36" t="str">
+        <f>LOWER(A36)</f>
+        <v>magneton</v>
+      </c>
+      <c r="M36" t="str">
         <f t="shared" si="0"/>
-        <v>18 ottobre 2024</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="4"/>
-        <v>slakoth</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="2"/>
-        <v>https://limitlesstcg.com/cards/jp/SV8/117</v>
+        <v>https://limitlesstcg.com/cards/jp/SV8/112</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="3"/>
-        <v>https://limitlesstcg.com/cards/en/SSP/212</v>
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SVP/159</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>1487</v>
+        <v>604</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(D37,Foglio3!B:D,2,FALSE)</f>
@@ -12201,42 +12263,147 @@
         <v>142</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>2224</v>
+        <v>2234</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>2232</v>
+        <v>2238</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>2231</v>
+        <v>2236</v>
       </c>
       <c r="I37">
         <f>VLOOKUP(A37,Foglio1!C:D,2,FALSE)</f>
+        <v>231</v>
+      </c>
+      <c r="J37" s="8">
+        <f>VLOOKUP(D37,Foglio3!B:D,3,FALSE)</f>
+        <v>45583</v>
+      </c>
+      <c r="K37" s="8" t="str">
+        <f>TEXT(J37,"gg mmmm aaaa")</f>
+        <v>18 ottobre 2024</v>
+      </c>
+      <c r="L37" t="str">
+        <f>LOWER(A37)</f>
+        <v>phanpy</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://limitlesstcg.com/cards/jp/SV8/115</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v>https://limitlesstcg.com/cards/en/SSP/205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B38" t="str">
+        <f>VLOOKUP(D38,Foglio3!B:D,2,FALSE)</f>
+        <v>super-electric-breaker</v>
+      </c>
+      <c r="C38" t="str">
+        <f>VLOOKUP(E38,Foglio5!B:D,2,FALSE)</f>
+        <v>surging-sparks</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>2230</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38">
+        <f>VLOOKUP(A38,Foglio1!C:D,2,FALSE)</f>
+        <v>287</v>
+      </c>
+      <c r="J38" s="8">
+        <f>VLOOKUP(D38,Foglio3!B:D,3,FALSE)</f>
+        <v>45583</v>
+      </c>
+      <c r="K38" s="8" t="str">
+        <f>TEXT(J38,"gg mmmm aaaa")</f>
+        <v>18 ottobre 2024</v>
+      </c>
+      <c r="L38" t="str">
+        <f>LOWER(A38)</f>
+        <v>slakoth</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" ref="M38:M39" si="2">_xlfn.CONCAT("https://limitlesstcg.com/cards/jp/", UPPER(D38),"/", LEFT(F38, FIND("/", F38 &amp; "/") - 1))</f>
+        <v>https://limitlesstcg.com/cards/jp/SV8/117</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" ref="N38:N39" si="3">_xlfn.CONCAT("https://limitlesstcg.com/cards/en/", UPPER(E38),"/", LEFT(G38, FIND("/", G38 &amp; "/") - 1))</f>
+        <v>https://limitlesstcg.com/cards/en/SSP/212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B39" t="str">
+        <f>VLOOKUP(D39,Foglio3!B:D,2,FALSE)</f>
+        <v>super-electric-breaker</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(E39,Foglio5!B:D,2,FALSE)</f>
+        <v>surging-sparks</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>2232</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>2231</v>
+      </c>
+      <c r="I39">
+        <f>VLOOKUP(A39,Foglio1!C:D,2,FALSE)</f>
         <v>666</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J39" s="8">
+        <f>VLOOKUP(D39,Foglio3!B:D,3,FALSE)</f>
         <v>45583</v>
       </c>
-      <c r="K37" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="K39" s="8" t="str">
+        <f>TEXT(J39,"gg mmmm aaaa")</f>
         <v>18 ottobre 2024</v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" si="4"/>
+      <c r="L39" t="str">
+        <f>LOWER(A39)</f>
         <v>vivillon</v>
       </c>
-      <c r="M37" t="str">
+      <c r="M39" t="str">
         <f t="shared" si="2"/>
         <v>https://limitlesstcg.com/cards/jp/SV8/71</v>
       </c>
-      <c r="N37" t="str">
+      <c r="N39" t="str">
         <f t="shared" si="3"/>
         <v>https://limitlesstcg.com/cards/en/SSP/193</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{75402D94-A2CB-F345-A35A-FD39392DB121}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L37">
-      <sortCondition ref="J1:J37"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
+      <sortCondition ref="J1:J39"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
